--- a/insumos/produccion_gas_1999-2018.xlsx
+++ b/insumos/produccion_gas_1999-2018.xlsx
@@ -175,11 +175,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -262,8 +262,8 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E26" activeCellId="0" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
